--- a/public/formats/formato-usuarios.xlsx
+++ b/public/formats/formato-usuarios.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Nombres</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Email secundario</t>
+  </si>
+  <si>
+    <t>Monto participante</t>
   </si>
   <si>
     <t>Teléfono</t>
@@ -1199,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1211,10 +1214,10 @@
     <col min="4" max="4" width="25.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.1719" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.6719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.1719" style="1" customWidth="1"/>
-    <col min="10" max="12" width="23.6719" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="7" max="8" width="18.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="20.1719" style="1" customWidth="1"/>
+    <col min="11" max="13" width="23.6719" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.75" customHeight="1">
@@ -1254,6 +1257,9 @@
       <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="14.75" customHeight="1">
       <c r="A2" s="3"/>
@@ -1268,6 +1274,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" ht="14.75" customHeight="1">
       <c r="A3" s="3"/>
@@ -1282,6 +1289,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" ht="14.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -1296,6 +1304,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" ht="14.75" customHeight="1">
       <c r="A5" s="3"/>
@@ -1310,6 +1319,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" ht="14.75" customHeight="1">
       <c r="A6" s="3"/>
@@ -1324,6 +1334,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" ht="14.75" customHeight="1">
       <c r="A7" s="3"/>
@@ -1338,6 +1349,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" ht="14.75" customHeight="1">
       <c r="A8" s="3"/>
@@ -1352,6 +1364,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" ht="14.75" customHeight="1">
       <c r="A9" s="3"/>
@@ -1366,6 +1379,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" ht="14.75" customHeight="1">
       <c r="A10" s="3"/>
@@ -1380,6 +1394,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" ht="14.75" customHeight="1">
       <c r="A11" s="3"/>
@@ -1394,6 +1409,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" ht="14.75" customHeight="1">
       <c r="A12" s="3"/>
@@ -1408,6 +1424,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" ht="14.75" customHeight="1">
       <c r="A13" s="3"/>
@@ -1422,6 +1439,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" ht="14.75" customHeight="1">
       <c r="A14" s="3"/>
@@ -1436,6 +1454,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" ht="14.75" customHeight="1">
       <c r="A15" s="3"/>
@@ -1450,6 +1469,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" ht="14.75" customHeight="1">
       <c r="A16" s="3"/>
@@ -1464,6 +1484,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" ht="14.75" customHeight="1">
       <c r="A17" s="3"/>
@@ -1478,6 +1499,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" ht="14.75" customHeight="1">
       <c r="A18" s="3"/>
@@ -1492,6 +1514,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" ht="14.75" customHeight="1">
       <c r="A19" s="3"/>
@@ -1506,6 +1529,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" ht="14.75" customHeight="1">
       <c r="A20" s="3"/>
@@ -1520,6 +1544,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" ht="14.75" customHeight="1">
       <c r="A21" s="3"/>
@@ -1534,6 +1559,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" ht="14.75" customHeight="1">
       <c r="A22" s="3"/>
@@ -1548,6 +1574,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" ht="14.75" customHeight="1">
       <c r="A23" s="3"/>
@@ -1562,6 +1589,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" ht="14.75" customHeight="1">
       <c r="A24" s="3"/>
@@ -1576,6 +1604,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" ht="14.75" customHeight="1">
       <c r="A25" s="3"/>
@@ -1590,6 +1619,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" ht="14.75" customHeight="1">
       <c r="A26" s="3"/>
@@ -1604,6 +1634,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" ht="14.75" customHeight="1">
       <c r="A27" s="3"/>
@@ -1618,6 +1649,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" ht="14.75" customHeight="1">
       <c r="A28" s="3"/>
@@ -1632,6 +1664,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" ht="14.75" customHeight="1">
       <c r="A29" s="3"/>
@@ -1646,6 +1679,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" ht="14.75" customHeight="1">
       <c r="A30" s="3"/>
@@ -1660,6 +1694,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" ht="14.75" customHeight="1">
       <c r="A31" s="3"/>
@@ -1674,6 +1709,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
     </row>
     <row r="32" ht="14.75" customHeight="1">
       <c r="A32" s="3"/>
@@ -1688,6 +1724,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" ht="14.75" customHeight="1">
       <c r="A33" s="3"/>
@@ -1702,6 +1739,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
     </row>
     <row r="34" ht="14.75" customHeight="1">
       <c r="A34" s="3"/>
@@ -1716,6 +1754,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" ht="14.75" customHeight="1">
       <c r="A35" s="3"/>
@@ -1730,6 +1769,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
     </row>
     <row r="36" ht="14.75" customHeight="1">
       <c r="A36" s="3"/>
@@ -1744,6 +1784,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
     </row>
     <row r="37" ht="14.75" customHeight="1">
       <c r="A37" s="3"/>
@@ -1758,6 +1799,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
     </row>
     <row r="38" ht="14.75" customHeight="1">
       <c r="A38" s="3"/>
@@ -1772,6 +1814,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
     </row>
     <row r="39" ht="14.75" customHeight="1">
       <c r="A39" s="3"/>
@@ -1786,6 +1829,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
     </row>
     <row r="40" ht="14.75" customHeight="1">
       <c r="A40" s="3"/>
@@ -1800,6 +1844,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
     </row>
     <row r="41" ht="14.75" customHeight="1">
       <c r="A41" s="3"/>
@@ -1814,6 +1859,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
     </row>
     <row r="42" ht="14.75" customHeight="1">
       <c r="A42" s="3"/>
@@ -1828,6 +1874,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
     </row>
     <row r="43" ht="14.75" customHeight="1">
       <c r="A43" s="3"/>
@@ -1842,6 +1889,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
     </row>
     <row r="44" ht="14.75" customHeight="1">
       <c r="A44" s="3"/>
@@ -1856,6 +1904,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
     </row>
     <row r="45" ht="14.75" customHeight="1">
       <c r="A45" s="3"/>
@@ -1870,6 +1919,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
     </row>
     <row r="46" ht="14.75" customHeight="1">
       <c r="A46" s="3"/>
@@ -1884,6 +1934,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
     </row>
     <row r="47" ht="14.75" customHeight="1">
       <c r="A47" s="3"/>
@@ -1898,6 +1949,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
     </row>
     <row r="48" ht="14.75" customHeight="1">
       <c r="A48" s="3"/>
@@ -1912,6 +1964,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
     </row>
     <row r="49" ht="14.75" customHeight="1">
       <c r="A49" s="3"/>
@@ -1926,6 +1979,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
     </row>
     <row r="50" ht="14.75" customHeight="1">
       <c r="A50" s="3"/>
@@ -1940,6 +1994,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
     </row>
     <row r="51" ht="14.75" customHeight="1">
       <c r="A51" s="3"/>
@@ -1954,6 +2009,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
     </row>
     <row r="52" ht="14.75" customHeight="1">
       <c r="A52" s="3"/>
@@ -1968,6 +2024,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/formats/formato-usuarios.xlsx
+++ b/public/formats/formato-usuarios.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Nombres</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Monto participante</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
   <si>
     <t>Teléfono</t>
@@ -1202,11 +1205,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="14.7" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="32.1719" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
@@ -1214,13 +1217,13 @@
     <col min="4" max="4" width="25.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.1719" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.6719" style="1" customWidth="1"/>
-    <col min="7" max="8" width="18.5" style="1" customWidth="1"/>
-    <col min="9" max="10" width="20.1719" style="1" customWidth="1"/>
-    <col min="11" max="13" width="23.6719" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="7" max="9" width="18.5" style="1" customWidth="1"/>
+    <col min="10" max="11" width="20.1719" style="1" customWidth="1"/>
+    <col min="12" max="14" width="23.6719" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.75" customHeight="1">
+    <row r="1" ht="14.7" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1260,8 +1263,11 @@
       <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="14.75" customHeight="1">
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1275,8 +1281,9 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" ht="14.75" customHeight="1">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" ht="14.7" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1290,8 +1297,9 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-    </row>
-    <row r="4" ht="14.75" customHeight="1">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" ht="14.7" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1305,8 +1313,9 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" ht="14.75" customHeight="1">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1320,8 +1329,9 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" ht="14.75" customHeight="1">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1335,8 +1345,9 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" ht="14.75" customHeight="1">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1350,8 +1361,9 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" ht="14.75" customHeight="1">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1365,8 +1377,9 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" ht="14.75" customHeight="1">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1380,8 +1393,9 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" ht="14.75" customHeight="1">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1395,8 +1409,9 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" ht="14.75" customHeight="1">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" ht="14.7" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1410,8 +1425,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" ht="14.75" customHeight="1">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" ht="14.7" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1425,8 +1441,9 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" ht="14.75" customHeight="1">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" ht="14.7" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1440,8 +1457,9 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" ht="14.75" customHeight="1">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" ht="14.7" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1455,8 +1473,9 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" ht="14.75" customHeight="1">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" ht="14.7" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1470,8 +1489,9 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" ht="14.75" customHeight="1">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" ht="14.7" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1485,8 +1505,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" ht="14.75" customHeight="1">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" ht="14.7" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1500,8 +1521,9 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" ht="14.75" customHeight="1">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" ht="14.7" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1515,8 +1537,9 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-    </row>
-    <row r="19" ht="14.75" customHeight="1">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" ht="14.7" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1530,8 +1553,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" ht="14.75" customHeight="1">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" ht="14.7" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1545,8 +1569,9 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" ht="14.75" customHeight="1">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" ht="14.7" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1560,8 +1585,9 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" ht="14.75" customHeight="1">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" ht="14.7" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1575,8 +1601,9 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" ht="14.75" customHeight="1">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" ht="14.7" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1590,8 +1617,9 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" ht="14.75" customHeight="1">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" ht="14.7" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1605,8 +1633,9 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" ht="14.75" customHeight="1">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" ht="14.7" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1620,8 +1649,9 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" ht="14.75" customHeight="1">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" ht="14.7" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1635,8 +1665,9 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" ht="14.75" customHeight="1">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" ht="14.7" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1650,8 +1681,9 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" ht="14.75" customHeight="1">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" ht="14.7" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1665,8 +1697,9 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" ht="14.75" customHeight="1">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" ht="14.7" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1680,8 +1713,9 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" ht="14.75" customHeight="1">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" ht="14.7" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1695,8 +1729,9 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" ht="14.75" customHeight="1">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" ht="14.7" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1710,8 +1745,9 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" ht="14.75" customHeight="1">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" ht="14.7" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1725,8 +1761,9 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" ht="14.75" customHeight="1">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" ht="14.7" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1740,8 +1777,9 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" ht="14.75" customHeight="1">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" ht="14.7" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1755,8 +1793,9 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-    </row>
-    <row r="35" ht="14.75" customHeight="1">
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" ht="14.7" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1770,8 +1809,9 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" ht="14.75" customHeight="1">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" ht="14.7" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1785,8 +1825,9 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-    </row>
-    <row r="37" ht="14.75" customHeight="1">
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" ht="14.7" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1800,8 +1841,9 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" ht="14.75" customHeight="1">
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" ht="14.7" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1815,8 +1857,9 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" ht="14.75" customHeight="1">
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" ht="14.7" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1830,8 +1873,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" ht="14.75" customHeight="1">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" ht="14.7" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1845,8 +1889,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" ht="14.75" customHeight="1">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" ht="14.7" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1860,8 +1905,9 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-    </row>
-    <row r="42" ht="14.75" customHeight="1">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" ht="14.7" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1875,8 +1921,9 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-    </row>
-    <row r="43" ht="14.75" customHeight="1">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" ht="14.7" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1890,8 +1937,9 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-    </row>
-    <row r="44" ht="14.75" customHeight="1">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" ht="14.7" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1905,8 +1953,9 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-    </row>
-    <row r="45" ht="14.75" customHeight="1">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" ht="14.7" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1920,8 +1969,9 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-    </row>
-    <row r="46" ht="14.75" customHeight="1">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" ht="14.7" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1935,8 +1985,9 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-    </row>
-    <row r="47" ht="14.75" customHeight="1">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" ht="14.7" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1950,8 +2001,9 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-    </row>
-    <row r="48" ht="14.75" customHeight="1">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" ht="14.7" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1965,8 +2017,9 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
-    </row>
-    <row r="49" ht="14.75" customHeight="1">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" ht="14.7" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1980,8 +2033,9 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-    </row>
-    <row r="50" ht="14.75" customHeight="1">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" ht="14.7" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1995,36 +2049,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-    </row>
-    <row r="51" ht="14.75" customHeight="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" ht="14.75" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="N50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
